--- a/Skill Audit/Sakriya Skills Audit.xlsx
+++ b/Skill Audit/Sakriya Skills Audit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4551051-0782-4190-981C-3A32CDE97944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA265FA-149A-4A2A-8C28-91BBD5AAEA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>NO#</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Skill Level: 1 (No Knowledge) - 5 (Competent)</t>
   </si>
   <si>
-    <t>Html/Css</t>
-  </si>
-  <si>
     <t>Php</t>
   </si>
   <si>
@@ -93,30 +90,9 @@
     <t>Date Reviewed: 2020-02-27</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gain knowledge to work on login system, add to cart and so on.</t>
-  </si>
-  <si>
-    <t>Know how to make website more dynamic and to add special effects.</t>
-  </si>
-  <si>
-    <t>Gain more information on how to track the progress of the project.</t>
-  </si>
-  <si>
-    <t>Develop knowledge and implement on project to make website logo.</t>
-  </si>
-  <si>
     <t>Apex Oracle</t>
   </si>
   <si>
-    <t>Develop knowledge on how to use oracle database for our project.</t>
-  </si>
-  <si>
-    <t>Know how to share and update the files between team members in a proper way.</t>
-  </si>
-  <si>
-    <t>Implement online payment i.e. paypal in our project.</t>
-  </si>
-  <si>
     <t>Slack</t>
   </si>
   <si>
@@ -126,30 +102,6 @@
     <t xml:space="preserve">One drive </t>
   </si>
   <si>
-    <t>Organize team tasks in a better way to complete on time</t>
-  </si>
-  <si>
-    <t>Gain knowledge to store folders in a proper way.</t>
-  </si>
-  <si>
-    <t>Communicate with team members in a proper way.</t>
-  </si>
-  <si>
-    <t>Get more knowledge to create eerd, erd and uml diagrams.</t>
-  </si>
-  <si>
-    <t>Obtain more knowledge to make documentation better.</t>
-  </si>
-  <si>
-    <t>Gain more practice and ideas to make a better logo.</t>
-  </si>
-  <si>
-    <t>Obtain proper information to make the website reponsive.</t>
-  </si>
-  <si>
-    <t>Better understand front end to implement it on project.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Skill Audit for Sakriya Bajracharya</t>
   </si>
   <si>
@@ -157,6 +109,90 @@
   </si>
   <si>
     <t>Completed by: Sakriya Bajracharya</t>
+  </si>
+  <si>
+    <t>Html/CSS</t>
+  </si>
+  <si>
+    <t>Gain even more knowledge on front end development and how to style the website even more using CSS</t>
+  </si>
+  <si>
+    <t>Be more knowledgeful on login system and gan knlowledge about apex oracle integration</t>
+  </si>
+  <si>
+    <t>To make sure that files and folders are syncronized between all team members and have version control</t>
+  </si>
+  <si>
+    <t>Understanding how online transction works to make secure connection</t>
+  </si>
+  <si>
+    <t>Know more about the use of the script which makes for more plesent viewing of website</t>
+  </si>
+  <si>
+    <t>Gain more knowledge onhow to divide the task between team members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain more knowledge on connection between classes </t>
+  </si>
+  <si>
+    <t>Know how to make documentation that every one can understand about the project</t>
+  </si>
+  <si>
+    <t>Make the images and logos more pleasant to view</t>
+  </si>
+  <si>
+    <t>Design a logo that is very easy to understand and carries the brand essence</t>
+  </si>
+  <si>
+    <t>Making the website responsive and using built in functions to make sure that the website is easy to view</t>
+  </si>
+  <si>
+    <t>Making the data acessible to multiple users on login and php integration</t>
+  </si>
+  <si>
+    <t>Making communication easy for ever team member</t>
+  </si>
+  <si>
+    <t>Making sure that the tasks are distributed and organixed in a proper way</t>
+  </si>
+  <si>
+    <t>Gain knowledge to store folders in a proper Astoring of files</t>
+  </si>
+  <si>
+    <t>Tutorials on W3 school and tutorials point</t>
+  </si>
+  <si>
+    <t>Youtube tutorials and php documentation</t>
+  </si>
+  <si>
+    <t>Github documentation and youtube tutorials</t>
+  </si>
+  <si>
+    <t>Youtube tutorials and API documentation of related sites as Paypal</t>
+  </si>
+  <si>
+    <t>W3 School tutorials , Youtube Tutorials and Javascript Documentation</t>
+  </si>
+  <si>
+    <t>Class from Rohit sir</t>
+  </si>
+  <si>
+    <t>Previous classes from Module teachers</t>
+  </si>
+  <si>
+    <t>Online tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youtube Tutorials </t>
+  </si>
+  <si>
+    <t>Youtube Tutorials, Bootstrap Documentation, and W3 School</t>
+  </si>
+  <si>
+    <t>Previous classes , Online Tutorials, Youtube Tutorials</t>
+  </si>
+  <si>
+    <t>Online Tutorials</t>
   </si>
 </sst>
 </file>
@@ -221,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -246,69 +282,48 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -318,7 +333,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -326,16 +341,32 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -349,58 +380,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -756,7 +797,7 @@
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="32.09765625" customWidth="1"/>
+    <col min="4" max="4" width="32.09765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.3984375" customWidth="1"/>
     <col min="6" max="6" width="13.09765625" customWidth="1"/>
     <col min="7" max="7" width="27.09765625" bestFit="1" customWidth="1"/>
@@ -764,426 +805,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11">
+        <v>43891</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
+      <c r="D8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11">
+        <v>43935</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>43897</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11">
+        <v>43910</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="9">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11">
+        <v>43920</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11">
+        <v>43891</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12">
+        <v>43895</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11">
+        <v>43909</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>43895</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>43895</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="9">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11">
+        <v>43933</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8">
-        <v>43900</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="F18" s="9">
+        <v>15</v>
+      </c>
+      <c r="G18" s="11">
+        <v>43935</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8">
-        <v>43935</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8">
-        <v>43897</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8">
-        <v>43931</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8">
-        <v>43928</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8">
-        <v>43920</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9">
-        <v>43895</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8">
-        <v>43905</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9">
-        <v>43895</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8">
-        <v>43894</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="11">
-        <v>43917</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="11">
-        <v>43926</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="D19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
       <c r="G19" s="11">
         <v>43890</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
       <c r="G20" s="11">
-        <v>43891</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>42</v>
+        <v>43890</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
       <c r="G21" s="11">
-        <v>43893</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>42</v>
+        <v>43890</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1193,7 +1293,6 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1203,7 +1302,6 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1213,7 +1311,6 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1223,7 +1320,6 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>

--- a/Skill Audit/Sakriya Skills Audit.xlsx
+++ b/Skill Audit/Sakriya Skills Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA265FA-149A-4A2A-8C28-91BBD5AAEA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032B2623-DA0A-4D87-A68B-B0DFCCDC9510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,55 +387,55 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -788,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -805,478 +805,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <v>43891</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8">
+        <v>43935</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>43897</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="9">
-        <v>20</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8">
+        <v>43910</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8">
+        <v>43920</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>43891</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>43895</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>43909</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>43895</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>43895</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8</v>
+      </c>
+      <c r="G17" s="8">
+        <v>43933</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8">
         <v>43935</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="H18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="G9" s="11">
-        <v>43897</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="D19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>43890</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>43890</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="9">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11">
-        <v>43910</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="9">
-        <v>15</v>
-      </c>
-      <c r="G11" s="11">
-        <v>43920</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>6</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11">
-        <v>43891</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="12">
-        <v>43895</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11">
-        <v>43909</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9">
-        <v>5</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2</v>
-      </c>
-      <c r="G15" s="12">
-        <v>43895</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2</v>
-      </c>
-      <c r="G16" s="12">
-        <v>43895</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="9">
-        <v>8</v>
-      </c>
-      <c r="G17" s="11">
-        <v>43933</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="9">
-        <v>15</v>
-      </c>
-      <c r="G18" s="11">
-        <v>43935</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="6">
         <v>1</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G21" s="8">
         <v>43890</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11">
-        <v>43890</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>15</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="9">
-        <v>4</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
-        <v>43890</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Skill Audit/Sakriya Skills Audit.xlsx
+++ b/Skill Audit/Sakriya Skills Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032B2623-DA0A-4D87-A68B-B0DFCCDC9510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F6C26-E75E-44CC-818C-8E810CFCAB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17292" windowHeight="8976" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -788,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
